--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -1,86 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="145621"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Employee Data" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Егоров Егор Егорович</t>
-  </si>
-  <si>
-    <t>аннова анна анновна</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Организация: Организация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Табель учёта использования рабочего времени № 123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение: Основной состав</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата: 22.04.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№п/п</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ФИО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итого дней</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итого отработано часов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Егоров Егор Егорович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>я</x:t>
+  </x:si>
+  <x:si>
+    <x:t>аннова анна анновна</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -118,7 +243,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -152,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -187,10 +311,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -363,146 +486,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:AI8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="33" width="2.710625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="2" spans="1:35">
+      <x:c r="B2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:35">
+      <x:c r="Q3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:35">
+      <x:c r="Q4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:35">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="T6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="V6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="W6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="X6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Y6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="Z6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="AC6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AD6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AE6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AF6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AG6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AH6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AI6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:35">
+      <x:c r="A7" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:35">
+      <x:c r="A8" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Организация: Организация</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Табель учёта использования рабочего времени № 123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подразделение: Основной состав</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата: 22.04.2024</x:t>
+    <x:t>Организация: ООО "Организация"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Табель учёта использования рабочего времени № 1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение: Бухгалтерия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата: 17.04.2024</x:t>
   </x:si>
   <x:si>
     <x:t>№п/п</x:t>
@@ -133,13 +133,19 @@
     <x:t>Итого отработано часов</x:t>
   </x:si>
   <x:si>
-    <x:t>Егоров Егор Егорович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>я</x:t>
-  </x:si>
-  <x:si>
-    <x:t>аннова анна анновна</x:t>
+    <x:t>иванов иван иванович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Я</x:t>
+  </x:si>
+  <x:si>
+    <x:t>В</x:t>
+  </x:si>
+  <x:si>
+    <x:t>О</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ответственное лицо</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -490,14 +496,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AI8"/>
+  <x:dimension ref="A1:AI15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="30.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="5.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.710625" style="0" customWidth="1"/>
     <x:col min="3" max="33" width="2.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -515,7 +521,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:35">
-      <x:c r="Q4" s="0" t="s">
+      <x:c r="R4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -649,33 +655,87 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="T7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="V7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="W7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="X7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Y7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Z7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AA7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AB7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AC7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AE7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AF7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AG7" s="0" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:35">
-      <x:c r="A8" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>40</x:v>
+    <x:row r="15" spans="1:35">
+      <x:c r="B15" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -19,13 +19,13 @@
     <x:t>Организация: ООО "Организация"</x:t>
   </x:si>
   <x:si>
-    <x:t>Табель учёта использования рабочего времени № 1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подразделение: Бухгалтерия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата: 17.04.2024</x:t>
+    <x:t>Табель учёта использования рабочего времени № 123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение: Основной состав</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата: 16.04.2024</x:t>
   </x:si>
   <x:si>
     <x:t>№п/п</x:t>
@@ -133,16 +133,13 @@
     <x:t>Итого отработано часов</x:t>
   </x:si>
   <x:si>
-    <x:t>иванов иван иванович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Я</x:t>
-  </x:si>
-  <x:si>
-    <x:t>В</x:t>
-  </x:si>
-  <x:si>
-    <x:t>О</x:t>
+    <x:t>Егоров Егор Егорович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>я</x:t>
+  </x:si>
+  <x:si>
+    <x:t>аннова анна анновна</x:t>
   </x:si>
   <x:si>
     <x:t>Ответственное лицо</x:t>
@@ -654,88 +651,51 @@
       <x:c r="G7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="s">
+      <x:c r="X7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Y7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Z7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AH7" s="0">
+        <x:f>IF(C7="я",1,0)+IF(D7="я",1,0)+IF(E7="я",1,0)+IF(F7="я",1,0)+IF(G7="я",1,0)+IF(H7="я",1,0)+IF(I7="я",1,0)+IF(J7="я",1,0)+IF(K7="я",1,0)+IF(L7="я",1,0)+IF(M7="я",1,0)+IF(N7="я",1,0)+IF(G7="я",1,0)+IF(O7="я",1,0)+IF(P7="я",1,0)+IF(Q7="я",1,0)+IF(R7="я",1,0)+IF(S7="я",1,0)+IF(T7="я",1,0)+IF(U7="я",1,0)+IF(V7="я",1,0)+IF(W7="я",1,0)+IF(X7="я",1,0)+IF(Y7="я",1,0)+IF(Z7="я",1,0)+IF(AA7="я",1,0)+IF(AB7="я",1,0)+IF(AC7="я",1,0)+IF(AD7="я",1,0)+IF(AE7="я",1,0)+IF(AF7="я",1,0)+IF(AG7="я",1,0)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:35">
+      <x:c r="A8" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="N7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="O7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="S7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="T7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="U7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="V7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="W7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="X7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="Y7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="Z7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AA7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AB7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AC7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AD7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AE7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AF7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AG7" s="0" t="s">
-        <x:v>42</x:v>
+      <x:c r="C8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AH8" s="0">
+        <x:f>IF(C8="я",1,0)+IF(D8="я",1,0)+IF(E8="я",1,0)+IF(F8="я",1,0)+IF(G8="я",1,0)+IF(H8="я",1,0)+IF(I8="я",1,0)+IF(J8="я",1,0)+IF(K8="я",1,0)+IF(L8="я",1,0)+IF(M8="я",1,0)+IF(N8="я",1,0)+IF(G8="я",1,0)+IF(O8="я",1,0)+IF(P8="я",1,0)+IF(Q8="я",1,0)+IF(R8="я",1,0)+IF(S8="я",1,0)+IF(T8="я",1,0)+IF(U8="я",1,0)+IF(V8="я",1,0)+IF(W8="я",1,0)+IF(X8="я",1,0)+IF(Y8="я",1,0)+IF(Z8="я",1,0)+IF(AA8="я",1,0)+IF(AB8="я",1,0)+IF(AC8="я",1,0)+IF(AD8="я",1,0)+IF(AE8="я",1,0)+IF(AF8="я",1,0)+IF(AG8="я",1,0)</x:f>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:35">
       <x:c r="B15" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -19,7 +19,7 @@
     <x:t>Организация: ООО "Организация"</x:t>
   </x:si>
   <x:si>
-    <x:t>Табель учёта использования рабочего времени № 123</x:t>
+    <x:t>Табель учёта использования рабочего времени № 1323</x:t>
   </x:si>
   <x:si>
     <x:t>Подразделение: Основной состав</x:t>
@@ -493,7 +493,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AI15"/>
+  <x:dimension ref="A1:AI400"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -645,23 +645,11 @@
       <x:c r="E7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="X7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Y7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Z7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="AH7" s="0">
-        <x:f>IF(C7="я",1,0)+IF(D7="я",1,0)+IF(E7="я",1,0)+IF(F7="я",1,0)+IF(G7="я",1,0)+IF(H7="я",1,0)+IF(I7="я",1,0)+IF(J7="я",1,0)+IF(K7="я",1,0)+IF(L7="я",1,0)+IF(M7="я",1,0)+IF(N7="я",1,0)+IF(G7="я",1,0)+IF(O7="я",1,0)+IF(P7="я",1,0)+IF(Q7="я",1,0)+IF(R7="я",1,0)+IF(S7="я",1,0)+IF(T7="я",1,0)+IF(U7="я",1,0)+IF(V7="я",1,0)+IF(W7="я",1,0)+IF(X7="я",1,0)+IF(Y7="я",1,0)+IF(Z7="я",1,0)+IF(AA7="я",1,0)+IF(AB7="я",1,0)+IF(AC7="я",1,0)+IF(AD7="я",1,0)+IF(AE7="я",1,0)+IF(AF7="я",1,0)+IF(AG7="я",1,0)</x:f>
+        <x:f>IF(C7="я",1,0)+IF(D7="я",1,0)+IF(E7="я",1,0)+IF(F7="я",1,0)+IF(G7="я",1,0)+IF(H7="я",1,0)+IF(I7="я",1,0)+IF(J7="я",1,0)+IF(K7="я",1,0)+IF(L7="я",1,0)+IF(M7="я",1,0)+IF(N7="я",1,0)+IF(O7="я",1,0)+IF(P7="я",1,0)+IF(Q7="я",1,0)+IF(R7="я",1,0)+IF(S7="я",1,0)+IF(T7="я",1,0)+IF(U7="я",1,0)+IF(V7="я",1,0)+IF(W7="я",1,0)+IF(X7="я",1,0)+IF(Y7="я",1,0)+IF(Z7="я",1,0)+IF(AA7="я",1,0)+IF(AB7="я",1,0)+IF(AC7="я",1,0)+IF(AD7="я",1,0)+IF(AE7="я",1,0)+IF(AF7="я",1,0)+IF(AG7="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI7" s="0">
+        <x:f>AH7*$A$400</x:f>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:35">
@@ -677,25 +665,72 @@
       <x:c r="D8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="N8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="O8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="P8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Q8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="AH8" s="0">
         <x:f>IF(C8="я",1,0)+IF(D8="я",1,0)+IF(E8="я",1,0)+IF(F8="я",1,0)+IF(G8="я",1,0)+IF(H8="я",1,0)+IF(I8="я",1,0)+IF(J8="я",1,0)+IF(K8="я",1,0)+IF(L8="я",1,0)+IF(M8="я",1,0)+IF(N8="я",1,0)+IF(G8="я",1,0)+IF(O8="я",1,0)+IF(P8="я",1,0)+IF(Q8="я",1,0)+IF(R8="я",1,0)+IF(S8="я",1,0)+IF(T8="я",1,0)+IF(U8="я",1,0)+IF(V8="я",1,0)+IF(W8="я",1,0)+IF(X8="я",1,0)+IF(Y8="я",1,0)+IF(Z8="я",1,0)+IF(AA8="я",1,0)+IF(AB8="я",1,0)+IF(AC8="я",1,0)+IF(AD8="я",1,0)+IF(AE8="я",1,0)+IF(AF8="я",1,0)+IF(AG8="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI8" s="0">
+        <x:f>AH8*$A$400</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:35">
+      <x:c r="AH9" s="0">
+        <x:f>IF(C9="я",1,0)+IF(D9="я",1,0)+IF(E9="я",1,0)+IF(F9="я",1,0)+IF(G9="я",1,0)+IF(H9="я",1,0)+IF(I9="я",1,0)+IF(J9="я",1,0)+IF(K9="я",1,0)+IF(L9="я",1,0)+IF(M9="я",1,0)+IF(N9="я",1,0)+IF(O9="я",1,0)+IF(P9="я",1,0)+IF(Q9="я",1,0)+IF(R9="я",1,0)+IF(S9="я",1,0)+IF(T9="я",1,0)+IF(U9="я",1,0)+IF(V9="я",1,0)+IF(W9="я",1,0)+IF(X9="я",1,0)+IF(Y9="я",1,0)+IF(Z9="я",1,0)+IF(AA9="я",1,0)+IF(AB9="я",1,0)+IF(AC9="я",1,0)+IF(AD9="я",1,0)+IF(AE9="я",1,0)+IF(AF9="я",1,0)+IF(AG9="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI9" s="0">
+        <x:f>AH9*$A$400</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:35">
+      <x:c r="AH10" s="0">
+        <x:f>IF(C10="я",1,0)+IF(D10="я",1,0)+IF(E10="я",1,0)+IF(F10="я",1,0)+IF(G10="я",1,0)+IF(H10="я",1,0)+IF(I10="я",1,0)+IF(J10="я",1,0)+IF(K10="я",1,0)+IF(L10="я",1,0)+IF(M10="я",1,0)+IF(N10="я",1,0)+IF(O10="я",1,0)+IF(P10="я",1,0)+IF(Q10="я",1,0)+IF(R10="я",1,0)+IF(S10="я",1,0)+IF(T10="я",1,0)+IF(U10="я",1,0)+IF(V10="я",1,0)+IF(W10="я",1,0)+IF(X10="я",1,0)+IF(Y10="я",1,0)+IF(Z10="я",1,0)+IF(AA10="я",1,0)+IF(AB10="я",1,0)+IF(AC10="я",1,0)+IF(AD10="я",1,0)+IF(AE10="я",1,0)+IF(AF10="я",1,0)+IF(AG10="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI10" s="0">
+        <x:f>AH10*$A$400</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:35">
+      <x:c r="AH11" s="0">
+        <x:f>IF(C11="я",1,0)+IF(D11="я",1,0)+IF(E11="я",1,0)+IF(F11="я",1,0)+IF(G11="я",1,0)+IF(H11="я",1,0)+IF(I11="я",1,0)+IF(J11="я",1,0)+IF(K11="я",1,0)+IF(L11="я",1,0)+IF(M11="я",1,0)+IF(N11="я",1,0)+IF(O11="я",1,0)+IF(P11="я",1,0)+IF(Q11="я",1,0)+IF(R11="я",1,0)+IF(S11="я",1,0)+IF(T11="я",1,0)+IF(U11="я",1,0)+IF(V11="я",1,0)+IF(W11="я",1,0)+IF(X11="я",1,0)+IF(Y11="я",1,0)+IF(Z11="я",1,0)+IF(AA11="я",1,0)+IF(AB11="я",1,0)+IF(AC11="я",1,0)+IF(AD11="я",1,0)+IF(AE11="я",1,0)+IF(AF11="я",1,0)+IF(AG11="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI11" s="0">
+        <x:f>AH11*$A$400</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:35">
+      <x:c r="AH12" s="0">
+        <x:f>IF(C12="я",1,0)+IF(D12="я",1,0)+IF(E12="я",1,0)+IF(F12="я",1,0)+IF(G12="я",1,0)+IF(H12="я",1,0)+IF(I12="я",1,0)+IF(J12="я",1,0)+IF(K12="я",1,0)+IF(L12="я",1,0)+IF(M12="я",1,0)+IF(N12="я",1,0)++IF(O12="я",1,0)+IF(P12="я",1,0)+IF(Q12="я",1,0)+IF(R12="я",1,0)+IF(S12="я",1,0)+IF(T12="я",1,0)+IF(U12="я",1,0)+IF(V12="я",1,0)+IF(W12="я",1,0)+IF(X12="я",1,0)+IF(Y12="я",1,0)+IF(Z12="я",1,0)+IF(AA12="я",1,0)+IF(AB12="я",1,0)+IF(AC12="я",1,0)+IF(AD12="я",1,0)+IF(AE12="я",1,0)+IF(AF12="я",1,0)+IF(AG12="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI12" s="0">
+        <x:f>AH12*$A$400</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:35">
+      <x:c r="AH13" s="0">
+        <x:f>IF(C13="я",1,0)+IF(D13="я",1,0)+IF(E13="я",1,0)+IF(F13="я",1,0)+IF(G13="я",1,0)+IF(H13="я",1,0)+IF(I13="я",1,0)+IF(J13="я",1,0)+IF(K13="я",1,0)+IF(L13="я",1,0)+IF(M13="я",1,0)+IF(N13="я",1,0)+IF(O13="я",1,0)+IF(P13="я",1,0)+IF(Q13="я",1,0)+IF(R13="я",1,0)+IF(S13="я",1,0)+IF(T13="я",1,0)+IF(U13="я",1,0)+IF(V13="я",1,0)+IF(W13="я",1,0)+IF(X13="я",1,0)+IF(Y13="я",1,0)+IF(Z13="я",1,0)+IF(AA13="я",1,0)+IF(AB13="я",1,0)+IF(AC13="я",1,0)+IF(AD13="я",1,0)+IF(AE13="я",1,0)+IF(AF13="я",1,0)+IF(AG13="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI13" s="0">
+        <x:f>AH13*$A$400</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:35">
+      <x:c r="AH14" s="0">
+        <x:f>IF(C14="я",1,0)+IF(D14="я",1,0)+IF(E14="я",1,0)+IF(F14="я",1,0)+IF(G14="я",1,0)+IF(H14="я",1,0)+IF(I14="я",1,0)+IF(J14="я",1,0)+IF(K14="я",1,0)+IF(L14="я",1,0)+IF(M14="я",1,0)+IF(N14="я",1,0)+IF(O14="я",1,0)+IF(P14="я",1,0)+IF(Q14="я",1,0)+IF(R14="я",1,0)+IF(S14="я",1,0)+IF(T14="я",1,0)+IF(U14="я",1,0)+IF(V14="я",1,0)+IF(W14="я",1,0)+IF(X14="я",1,0)+IF(Y14="я",1,0)+IF(Z14="я",1,0)+IF(AA14="я",1,0)+IF(AB14="я",1,0)+IF(AC14="я",1,0)+IF(AD14="я",1,0)+IF(AE14="я",1,0)+IF(AF14="я",1,0)+IF(AG14="я",1,0)</x:f>
+      </x:c>
+      <x:c r="AI14" s="0">
+        <x:f>AH14*$A$400</x:f>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:35">
       <x:c r="B15" s="0" t="s">
         <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="400" spans="1:35">
+      <x:c r="A400" s="0">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -19,13 +19,13 @@
     <x:t>Организация: ООО "Организация"</x:t>
   </x:si>
   <x:si>
-    <x:t>Табель учёта использования рабочего времени № 1323</x:t>
+    <x:t>Табель учёта использования рабочего времени № 123</x:t>
   </x:si>
   <x:si>
     <x:t>Подразделение: Основной состав</x:t>
   </x:si>
   <x:si>
-    <x:t>Дата: 16.04.2024</x:t>
+    <x:t>Дата: 18.04.2024</x:t>
   </x:si>
   <x:si>
     <x:t>№п/п</x:t>
@@ -137,6 +137,15 @@
   </x:si>
   <x:si>
     <x:t>я</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Б</x:t>
+  </x:si>
+  <x:si>
+    <x:t>В</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Я</x:t>
   </x:si>
   <x:si>
     <x:t>аннова анна анновна</x:t>
@@ -645,8 +654,77 @@
       <x:c r="E7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="V7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="W7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="X7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Y7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Z7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AA7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AB7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="AH7" s="0">
-        <x:f>IF(C7="я",1,0)+IF(D7="я",1,0)+IF(E7="я",1,0)+IF(F7="я",1,0)+IF(G7="я",1,0)+IF(H7="я",1,0)+IF(I7="я",1,0)+IF(J7="я",1,0)+IF(K7="я",1,0)+IF(L7="я",1,0)+IF(M7="я",1,0)+IF(N7="я",1,0)+IF(O7="я",1,0)+IF(P7="я",1,0)+IF(Q7="я",1,0)+IF(R7="я",1,0)+IF(S7="я",1,0)+IF(T7="я",1,0)+IF(U7="я",1,0)+IF(V7="я",1,0)+IF(W7="я",1,0)+IF(X7="я",1,0)+IF(Y7="я",1,0)+IF(Z7="я",1,0)+IF(AA7="я",1,0)+IF(AB7="я",1,0)+IF(AC7="я",1,0)+IF(AD7="я",1,0)+IF(AE7="я",1,0)+IF(AF7="я",1,0)+IF(AG7="я",1,0)</x:f>
+        <x:f>IF(LOWER(C7)="я",1,0)+IF(LOWER(D7)="я",1,0)+IF(LOWER(E7)="я",1,0)+IF(LOWER(F7)="я",1,0)+IF(LOWER(G7)="я",1,0)+IF(LOWER(H7)="я",1,0)+IF(LOWER(I7)="я",1,0)+IF(LOWER(J7)="я",1,0)+IF(LOWER(K7)="я",1,0)+IF(LOWER(L7)="я",1,0)+IF(LOWER(M7)="я",1,0)+IF(LOWER(N7)="я",1,0)+IF(LOWER(O7)="я",1,0)+IF(LOWER(P7)="я",1,0)+IF(LOWER(Q7)="я",1,0)+IF(LOWER(R7)="я",1,0)+IF(LOWER(S7)="я",1,0)+IF(LOWER(T7)="я",1,0)+IF(LOWER(U7)="я",1,0)+IF(LOWER(V7)="я",1,0)+IF(LOWER(W7)="я",1,0)+IF(LOWER(X7)="я",1,0)+IF(LOWER(Y7)="я",1,0)+IF(LOWER(Z7)="я",1,0)+IF(LOWER(AA7)="я",1,0)+IF(LOWER(AB7)="я",1,0)+IF(LOWER(AC7)="я",1,0)+IF(LOWER(AD7)="я",1,0)+IF(LOWER(AE7)="я",1,0)+IF(LOWER(AF7)="я",1,0)+IF(LOWER(AG7)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI7" s="0">
         <x:f>AH7*$A$400</x:f>
@@ -657,19 +735,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="U8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="V8" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="AH8" s="0">
-        <x:f>IF(C8="я",1,0)+IF(D8="я",1,0)+IF(E8="я",1,0)+IF(F8="я",1,0)+IF(G8="я",1,0)+IF(H8="я",1,0)+IF(I8="я",1,0)+IF(J8="я",1,0)+IF(K8="я",1,0)+IF(L8="я",1,0)+IF(M8="я",1,0)+IF(N8="я",1,0)+IF(G8="я",1,0)+IF(O8="я",1,0)+IF(P8="я",1,0)+IF(Q8="я",1,0)+IF(R8="я",1,0)+IF(S8="я",1,0)+IF(T8="я",1,0)+IF(U8="я",1,0)+IF(V8="я",1,0)+IF(W8="я",1,0)+IF(X8="я",1,0)+IF(Y8="я",1,0)+IF(Z8="я",1,0)+IF(AA8="я",1,0)+IF(AB8="я",1,0)+IF(AC8="я",1,0)+IF(AD8="я",1,0)+IF(AE8="я",1,0)+IF(AF8="я",1,0)+IF(AG8="я",1,0)</x:f>
+        <x:f>IF(LOWER(C8)="я",1,0)+IF(LOWER(D8)="я",1,0)+IF(LOWER(E8)="я",1,0)+IF(LOWER(F8)="я",1,0)+IF(LOWER(G8)="я",1,0)+IF(LOWER(H8)="я",1,0)+IF(LOWER(I8)="я",1,0)+IF(LOWER(J8)="я",1,0)+IF(LOWER(K8)="я",1,0)+IF(LOWER(L8)="я",1,0)+IF(LOWER(M8)="я",1,0)+IF(LOWER(N8)="я",1,0)+IF(LOWER(O8)="я",1,0)+IF(LOWER(P8)="я",1,0)+IF(LOWER(Q8)="я",1,0)+IF(LOWER(R8)="я",1,0)+IF(LOWER(S8)="я",1,0)+IF(LOWER(T8)="я",1,0)+IF(LOWER(U8)="я",1,0)+IF(LOWER(V8)="я",1,0)+IF(LOWER(W8)="я",1,0)+IF(LOWER(X8)="я",1,0)+IF(LOWER(Y8)="я",1,0)+IF(LOWER(Z8)="я",1,0)+IF(LOWER(AA8)="я",1,0)+IF(LOWER(AB8)="я",1,0)+IF(LOWER(AC8)="я",1,0)+IF(LOWER(AD8)="я",1,0)+IF(LOWER(AE8)="я",1,0)+IF(LOWER(AF8)="я",1,0)+IF(LOWER(AG8)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI8" s="0">
         <x:f>AH8*$A$400</x:f>
@@ -677,7 +767,7 @@
     </x:row>
     <x:row r="9" spans="1:35">
       <x:c r="AH9" s="0">
-        <x:f>IF(C9="я",1,0)+IF(D9="я",1,0)+IF(E9="я",1,0)+IF(F9="я",1,0)+IF(G9="я",1,0)+IF(H9="я",1,0)+IF(I9="я",1,0)+IF(J9="я",1,0)+IF(K9="я",1,0)+IF(L9="я",1,0)+IF(M9="я",1,0)+IF(N9="я",1,0)+IF(O9="я",1,0)+IF(P9="я",1,0)+IF(Q9="я",1,0)+IF(R9="я",1,0)+IF(S9="я",1,0)+IF(T9="я",1,0)+IF(U9="я",1,0)+IF(V9="я",1,0)+IF(W9="я",1,0)+IF(X9="я",1,0)+IF(Y9="я",1,0)+IF(Z9="я",1,0)+IF(AA9="я",1,0)+IF(AB9="я",1,0)+IF(AC9="я",1,0)+IF(AD9="я",1,0)+IF(AE9="я",1,0)+IF(AF9="я",1,0)+IF(AG9="я",1,0)</x:f>
+        <x:f>IF(LOWER(C9)="я",1,0)+IF(LOWER(D9)="я",1,0)+IF(LOWER(E9)="я",1,0)+IF(LOWER(F9)="я",1,0)+IF(LOWER(G9)="я",1,0)+IF(LOWER(H9)="я",1,0)+IF(LOWER(I9)="я",1,0)+IF(LOWER(J9)="я",1,0)+IF(LOWER(K9)="я",1,0)+IF(LOWER(L9)="я",1,0)+IF(LOWER(M9)="я",1,0)+IF(LOWER(N9)="я",1,0)+IF(LOWER(O9)="я",1,0)+IF(LOWER(P9)="я",1,0)+IF(LOWER(Q9)="я",1,0)+IF(LOWER(R9)="я",1,0)+IF(LOWER(S9)="я",1,0)+IF(LOWER(T9)="я",1,0)+IF(LOWER(U9)="я",1,0)+IF(LOWER(V9)="я",1,0)+IF(LOWER(W9)="я",1,0)+IF(LOWER(X9)="я",1,0)+IF(LOWER(Y9)="я",1,0)+IF(LOWER(Z9)="я",1,0)+IF(LOWER(AA9)="я",1,0)+IF(LOWER(AB9)="я",1,0)+IF(LOWER(AC9)="я",1,0)+IF(LOWER(AD9)="я",1,0)+IF(LOWER(AE9)="я",1,0)+IF(LOWER(AF9)="я",1,0)+IF(LOWER(AG9)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI9" s="0">
         <x:f>AH9*$A$400</x:f>
@@ -685,7 +775,7 @@
     </x:row>
     <x:row r="10" spans="1:35">
       <x:c r="AH10" s="0">
-        <x:f>IF(C10="я",1,0)+IF(D10="я",1,0)+IF(E10="я",1,0)+IF(F10="я",1,0)+IF(G10="я",1,0)+IF(H10="я",1,0)+IF(I10="я",1,0)+IF(J10="я",1,0)+IF(K10="я",1,0)+IF(L10="я",1,0)+IF(M10="я",1,0)+IF(N10="я",1,0)+IF(O10="я",1,0)+IF(P10="я",1,0)+IF(Q10="я",1,0)+IF(R10="я",1,0)+IF(S10="я",1,0)+IF(T10="я",1,0)+IF(U10="я",1,0)+IF(V10="я",1,0)+IF(W10="я",1,0)+IF(X10="я",1,0)+IF(Y10="я",1,0)+IF(Z10="я",1,0)+IF(AA10="я",1,0)+IF(AB10="я",1,0)+IF(AC10="я",1,0)+IF(AD10="я",1,0)+IF(AE10="я",1,0)+IF(AF10="я",1,0)+IF(AG10="я",1,0)</x:f>
+        <x:f>IF(LOWER(C10)="я",1,0)+IF(LOWER(D10)="я",1,0)+IF(LOWER(E10)="я",1,0)+IF(LOWER(F10)="я",1,0)+IF(LOWER(G10)="я",1,0)+IF(LOWER(H10)="я",1,0)+IF(LOWER(I10)="я",1,0)+IF(LOWER(J10)="я",1,0)+IF(LOWER(K10)="я",1,0)+IF(LOWER(L10)="я",1,0)+IF(LOWER(M10)="я",1,0)+IF(LOWER(N10)="я",1,0)+IF(LOWER(O10)="я",1,0)+IF(LOWER(P10)="я",1,0)+IF(LOWER(Q10)="я",1,0)+IF(LOWER(R10)="я",1,0)+IF(LOWER(S10)="я",1,0)+IF(LOWER(T10)="я",1,0)+IF(LOWER(U10)="я",1,0)+IF(LOWER(V10)="я",1,0)+IF(LOWER(W10)="я",1,0)+IF(LOWER(X10)="я",1,0)+IF(LOWER(Y10)="я",1,0)+IF(LOWER(Z10)="я",1,0)+IF(LOWER(AA10)="я",1,0)+IF(LOWER(AB10)="я",1,0)+IF(LOWER(AC10)="я",1,0)+IF(LOWER(AD10)="я",1,0)+IF(LOWER(AE10)="я",1,0)+IF(LOWER(AF10)="я",1,0)+IF(LOWER(AG10)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI10" s="0">
         <x:f>AH10*$A$400</x:f>
@@ -693,7 +783,7 @@
     </x:row>
     <x:row r="11" spans="1:35">
       <x:c r="AH11" s="0">
-        <x:f>IF(C11="я",1,0)+IF(D11="я",1,0)+IF(E11="я",1,0)+IF(F11="я",1,0)+IF(G11="я",1,0)+IF(H11="я",1,0)+IF(I11="я",1,0)+IF(J11="я",1,0)+IF(K11="я",1,0)+IF(L11="я",1,0)+IF(M11="я",1,0)+IF(N11="я",1,0)+IF(O11="я",1,0)+IF(P11="я",1,0)+IF(Q11="я",1,0)+IF(R11="я",1,0)+IF(S11="я",1,0)+IF(T11="я",1,0)+IF(U11="я",1,0)+IF(V11="я",1,0)+IF(W11="я",1,0)+IF(X11="я",1,0)+IF(Y11="я",1,0)+IF(Z11="я",1,0)+IF(AA11="я",1,0)+IF(AB11="я",1,0)+IF(AC11="я",1,0)+IF(AD11="я",1,0)+IF(AE11="я",1,0)+IF(AF11="я",1,0)+IF(AG11="я",1,0)</x:f>
+        <x:f>IF(LOWER(C11)="я",1,0)+IF(LOWER(D11)="я",1,0)+IF(LOWER(E11)="я",1,0)+IF(LOWER(F11)="я",1,0)+IF(LOWER(G11)="я",1,0)+IF(LOWER(H11)="я",1,0)+IF(LOWER(I11)="я",1,0)+IF(LOWER(J11)="я",1,0)+IF(LOWER(K11)="я",1,0)+IF(LOWER(L11)="я",1,0)+IF(LOWER(M11)="я",1,0)+IF(LOWER(N11)="я",1,0)+IF(LOWER(O11)="я",1,0)+IF(LOWER(P11)="я",1,0)+IF(LOWER(Q11)="я",1,0)+IF(LOWER(R11)="я",1,0)+IF(LOWER(S11)="я",1,0)+IF(LOWER(T11)="я",1,0)+IF(LOWER(U11)="я",1,0)+IF(LOWER(V11)="я",1,0)+IF(LOWER(W11)="я",1,0)+IF(LOWER(X11)="я",1,0)+IF(LOWER(Y11)="я",1,0)+IF(LOWER(Z11)="я",1,0)+IF(LOWER(AA11)="я",1,0)+IF(LOWER(AB11)="я",1,0)+IF(LOWER(AC11)="я",1,0)+IF(LOWER(AD11)="я",1,0)+IF(LOWER(AE11)="я",1,0)+IF(LOWER(AF11)="я",1,0)+IF(LOWER(AG11)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI11" s="0">
         <x:f>AH11*$A$400</x:f>
@@ -701,7 +791,7 @@
     </x:row>
     <x:row r="12" spans="1:35">
       <x:c r="AH12" s="0">
-        <x:f>IF(C12="я",1,0)+IF(D12="я",1,0)+IF(E12="я",1,0)+IF(F12="я",1,0)+IF(G12="я",1,0)+IF(H12="я",1,0)+IF(I12="я",1,0)+IF(J12="я",1,0)+IF(K12="я",1,0)+IF(L12="я",1,0)+IF(M12="я",1,0)+IF(N12="я",1,0)++IF(O12="я",1,0)+IF(P12="я",1,0)+IF(Q12="я",1,0)+IF(R12="я",1,0)+IF(S12="я",1,0)+IF(T12="я",1,0)+IF(U12="я",1,0)+IF(V12="я",1,0)+IF(W12="я",1,0)+IF(X12="я",1,0)+IF(Y12="я",1,0)+IF(Z12="я",1,0)+IF(AA12="я",1,0)+IF(AB12="я",1,0)+IF(AC12="я",1,0)+IF(AD12="я",1,0)+IF(AE12="я",1,0)+IF(AF12="я",1,0)+IF(AG12="я",1,0)</x:f>
+        <x:f>IF(LOWER(C12)="я",1,0)+IF(LOWER(D12)="я",1,0)+IF(LOWER(E12)="я",1,0)+IF(LOWER(F12)="я",1,0)+IF(LOWER(G12)="я",1,0)+IF(LOWER(H12)="я",1,0)+IF(LOWER(I12)="я",1,0)+IF(LOWER(J12)="я",1,0)+IF(LOWER(K12)="я",1,0)+IF(LOWER(L12)="я",1,0)+IF(LOWER(M12)="я",1,0)+IF(LOWER(N12)="я",1,0)+IF(LOWER(O12)="я",1,0)+IF(LOWER(P12)="я",1,0)+IF(LOWER(Q12)="я",1,0)+IF(LOWER(R12)="я",1,0)+IF(LOWER(S12)="я",1,0)+IF(LOWER(T12)="я",1,0)+IF(LOWER(U12)="я",1,0)+IF(LOWER(V12)="я",1,0)+IF(LOWER(W12)="я",1,0)+IF(LOWER(X12)="я",1,0)+IF(LOWER(Y12)="я",1,0)+IF(LOWER(Z12)="я",1,0)+IF(LOWER(AA12)="я",1,0)+IF(LOWER(AB12)="я",1,0)+IF(LOWER(AC12)="я",1,0)+IF(LOWER(AD12)="я",1,0)+IF(LOWER(AE12)="я",1,0)+IF(LOWER(AF12)="я",1,0)+IF(LOWER(AG12)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI12" s="0">
         <x:f>AH12*$A$400</x:f>
@@ -709,7 +799,7 @@
     </x:row>
     <x:row r="13" spans="1:35">
       <x:c r="AH13" s="0">
-        <x:f>IF(C13="я",1,0)+IF(D13="я",1,0)+IF(E13="я",1,0)+IF(F13="я",1,0)+IF(G13="я",1,0)+IF(H13="я",1,0)+IF(I13="я",1,0)+IF(J13="я",1,0)+IF(K13="я",1,0)+IF(L13="я",1,0)+IF(M13="я",1,0)+IF(N13="я",1,0)+IF(O13="я",1,0)+IF(P13="я",1,0)+IF(Q13="я",1,0)+IF(R13="я",1,0)+IF(S13="я",1,0)+IF(T13="я",1,0)+IF(U13="я",1,0)+IF(V13="я",1,0)+IF(W13="я",1,0)+IF(X13="я",1,0)+IF(Y13="я",1,0)+IF(Z13="я",1,0)+IF(AA13="я",1,0)+IF(AB13="я",1,0)+IF(AC13="я",1,0)+IF(AD13="я",1,0)+IF(AE13="я",1,0)+IF(AF13="я",1,0)+IF(AG13="я",1,0)</x:f>
+        <x:f>IF(LOWER(C13)="я",1,0)+IF(LOWER(D13)="я",1,0)+IF(LOWER(E13)="я",1,0)+IF(LOWER(F13)="я",1,0)+IF(LOWER(G13)="я",1,0)+IF(LOWER(H13)="я",1,0)+IF(LOWER(I13)="я",1,0)+IF(LOWER(J13)="я",1,0)+IF(LOWER(K13)="я",1,0)+IF(LOWER(L13)="я",1,0)+IF(LOWER(M13)="я",1,0)+IF(LOWER(N13)="я",1,0)+IF(LOWER(O13)="я",1,0)+IF(LOWER(P13)="я",1,0)+IF(LOWER(Q13)="я",1,0)+IF(LOWER(R13)="я",1,0)+IF(LOWER(S13)="я",1,0)+IF(LOWER(T13)="я",1,0)+IF(LOWER(U13)="я",1,0)+IF(LOWER(V13)="я",1,0)+IF(LOWER(W13)="я",1,0)+IF(LOWER(X13)="я",1,0)+IF(LOWER(Y13)="я",1,0)+IF(LOWER(Z13)="я",1,0)+IF(LOWER(AA13)="я",1,0)+IF(LOWER(AB13)="я",1,0)+IF(LOWER(AC13)="я",1,0)+IF(LOWER(AD13)="я",1,0)+IF(LOWER(AE13)="я",1,0)+IF(LOWER(AF13)="я",1,0)+IF(LOWER(AG13)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI13" s="0">
         <x:f>AH13*$A$400</x:f>
@@ -717,7 +807,7 @@
     </x:row>
     <x:row r="14" spans="1:35">
       <x:c r="AH14" s="0">
-        <x:f>IF(C14="я",1,0)+IF(D14="я",1,0)+IF(E14="я",1,0)+IF(F14="я",1,0)+IF(G14="я",1,0)+IF(H14="я",1,0)+IF(I14="я",1,0)+IF(J14="я",1,0)+IF(K14="я",1,0)+IF(L14="я",1,0)+IF(M14="я",1,0)+IF(N14="я",1,0)+IF(O14="я",1,0)+IF(P14="я",1,0)+IF(Q14="я",1,0)+IF(R14="я",1,0)+IF(S14="я",1,0)+IF(T14="я",1,0)+IF(U14="я",1,0)+IF(V14="я",1,0)+IF(W14="я",1,0)+IF(X14="я",1,0)+IF(Y14="я",1,0)+IF(Z14="я",1,0)+IF(AA14="я",1,0)+IF(AB14="я",1,0)+IF(AC14="я",1,0)+IF(AD14="я",1,0)+IF(AE14="я",1,0)+IF(AF14="я",1,0)+IF(AG14="я",1,0)</x:f>
+        <x:f>IF(LOWER(C14)="я",1,0)+IF(LOWER(D14)="я",1,0)+IF(LOWER(E14)="я",1,0)+IF(LOWER(F14)="я",1,0)+IF(LOWER(G14)="я",1,0)+IF(LOWER(H14)="я",1,0)+IF(LOWER(I14)="я",1,0)+IF(LOWER(J14)="я",1,0)+IF(LOWER(K14)="я",1,0)+IF(LOWER(L14)="я",1,0)+IF(LOWER(M14)="я",1,0)+IF(LOWER(N14)="я",1,0)+IF(LOWER(O14)="я",1,0)+IF(LOWER(P14)="я",1,0)+IF(LOWER(Q14)="я",1,0)+IF(LOWER(R14)="я",1,0)+IF(LOWER(S14)="я",1,0)+IF(LOWER(T14)="я",1,0)+IF(LOWER(U14)="я",1,0)+IF(LOWER(V14)="я",1,0)+IF(LOWER(W14)="я",1,0)+IF(LOWER(X14)="я",1,0)+IF(LOWER(Y14)="я",1,0)+IF(LOWER(Z14)="я",1,0)+IF(LOWER(AA14)="я",1,0)+IF(LOWER(AB14)="я",1,0)+IF(LOWER(AC14)="я",1,0)+IF(LOWER(AD14)="я",1,0)+IF(LOWER(AE14)="я",1,0)+IF(LOWER(AF14)="я",1,0)+IF(LOWER(AG14)="я",1,0)</x:f>
       </x:c>
       <x:c r="AI14" s="0">
         <x:f>AH14*$A$400</x:f>
@@ -725,7 +815,7 @@
     </x:row>
     <x:row r="15" spans="1:35">
       <x:c r="B15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="400" spans="1:35">

--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -19,13 +19,13 @@
     <x:t>Организация: ООО "Организация"</x:t>
   </x:si>
   <x:si>
-    <x:t>Табель учёта использования рабочего времени № 123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подразделение: Основной состав</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата: 18.04.2024</x:t>
+    <x:t>Табель учёта использования рабочего времени № 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение: Бухгалтерия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата: 04.04.2024</x:t>
   </x:si>
   <x:si>
     <x:t>№п/п</x:t>
@@ -133,22 +133,10 @@
     <x:t>Итого отработано часов</x:t>
   </x:si>
   <x:si>
-    <x:t>Егоров Егор Егорович</x:t>
+    <x:t>иванов иван иванович</x:t>
   </x:si>
   <x:si>
     <x:t>я</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Б</x:t>
-  </x:si>
-  <x:si>
-    <x:t>В</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Я</x:t>
-  </x:si>
-  <x:si>
-    <x:t>аннова анна анновна</x:t>
   </x:si>
   <x:si>
     <x:t>Ответственное лицо</x:t>
@@ -648,174 +636,81 @@
       <x:c r="C7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="K7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="Q7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="X7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="O7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="S7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="T7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="U7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="V7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="W7" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="X7" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="Y7" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="Z7" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AA7" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AB7" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="AH7" s="0">
-        <x:f>IF(LOWER(C7)="я",1,0)+IF(LOWER(D7)="я",1,0)+IF(LOWER(E7)="я",1,0)+IF(LOWER(F7)="я",1,0)+IF(LOWER(G7)="я",1,0)+IF(LOWER(H7)="я",1,0)+IF(LOWER(I7)="я",1,0)+IF(LOWER(J7)="я",1,0)+IF(LOWER(K7)="я",1,0)+IF(LOWER(L7)="я",1,0)+IF(LOWER(M7)="я",1,0)+IF(LOWER(N7)="я",1,0)+IF(LOWER(O7)="я",1,0)+IF(LOWER(P7)="я",1,0)+IF(LOWER(Q7)="я",1,0)+IF(LOWER(R7)="я",1,0)+IF(LOWER(S7)="я",1,0)+IF(LOWER(T7)="я",1,0)+IF(LOWER(U7)="я",1,0)+IF(LOWER(V7)="я",1,0)+IF(LOWER(W7)="я",1,0)+IF(LOWER(X7)="я",1,0)+IF(LOWER(Y7)="я",1,0)+IF(LOWER(Z7)="я",1,0)+IF(LOWER(AA7)="я",1,0)+IF(LOWER(AB7)="я",1,0)+IF(LOWER(AC7)="я",1,0)+IF(LOWER(AD7)="я",1,0)+IF(LOWER(AE7)="я",1,0)+IF(LOWER(AF7)="я",1,0)+IF(LOWER(AG7)="я",1,0)</x:f>
+        <x:f>IF(B7="", "",IF(LOWER(C7)="я",1,0)+IF(LOWER(D7)="я",1,0)+IF(LOWER(E7)="я",1,0)+IF(LOWER(F7)="я",1,0)+IF(LOWER(G7)="я",1,0)+IF(LOWER(H7)="я",1,0)+IF(LOWER(I7)="я",1,0)+IF(LOWER(J7)="я",1,0)+IF(LOWER(K7)="я",1,0)+IF(LOWER(L7)="я",1,0)+IF(LOWER(M7)="я",1,0)+IF(LOWER(N7)="я",1,0)+IF(LOWER(O7)="я",1,0)+IF(LOWER(P7)="я",1,0)+IF(LOWER(Q7)="я",1,0)+IF(LOWER(R7)="я",1,0)+IF(LOWER(S7)="я",1,0)+IF(LOWER(T7)="я",1,0)+IF(LOWER(U7)="я",1,0)+IF(LOWER(V7)="я",1,0)+IF(LOWER(W7)="я",1,0)+IF(LOWER(X7)="я",1,0)+IF(LOWER(Y7)="я",1,0)+IF(LOWER(Z7)="я",1,0)+IF(LOWER(AA7)="я",1,0)+IF(LOWER(AB7)="я",1,0)+IF(LOWER(AC7)="я",1,0)+IF(LOWER(AD7)="я",1,0)+IF(LOWER(AE7)="я",1,0)+IF(LOWER(AF7)="я",1,0)+IF(LOWER(AG7)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI7" s="0">
-        <x:f>AH7*$A$400</x:f>
+        <x:f>IF(B7="", "",AH7*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:35">
-      <x:c r="A8" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="T8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="U8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="V8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="AH8" s="0">
-        <x:f>IF(LOWER(C8)="я",1,0)+IF(LOWER(D8)="я",1,0)+IF(LOWER(E8)="я",1,0)+IF(LOWER(F8)="я",1,0)+IF(LOWER(G8)="я",1,0)+IF(LOWER(H8)="я",1,0)+IF(LOWER(I8)="я",1,0)+IF(LOWER(J8)="я",1,0)+IF(LOWER(K8)="я",1,0)+IF(LOWER(L8)="я",1,0)+IF(LOWER(M8)="я",1,0)+IF(LOWER(N8)="я",1,0)+IF(LOWER(O8)="я",1,0)+IF(LOWER(P8)="я",1,0)+IF(LOWER(Q8)="я",1,0)+IF(LOWER(R8)="я",1,0)+IF(LOWER(S8)="я",1,0)+IF(LOWER(T8)="я",1,0)+IF(LOWER(U8)="я",1,0)+IF(LOWER(V8)="я",1,0)+IF(LOWER(W8)="я",1,0)+IF(LOWER(X8)="я",1,0)+IF(LOWER(Y8)="я",1,0)+IF(LOWER(Z8)="я",1,0)+IF(LOWER(AA8)="я",1,0)+IF(LOWER(AB8)="я",1,0)+IF(LOWER(AC8)="я",1,0)+IF(LOWER(AD8)="я",1,0)+IF(LOWER(AE8)="я",1,0)+IF(LOWER(AF8)="я",1,0)+IF(LOWER(AG8)="я",1,0)</x:f>
+        <x:f>IF(B8="", "",IF(LOWER(C8)="я",1,0)+IF(LOWER(D8)="я",1,0)+IF(LOWER(E8)="я",1,0)+IF(LOWER(F8)="я",1,0)+IF(LOWER(G8)="я",1,0)+IF(LOWER(H8)="я",1,0)+IF(LOWER(I8)="я",1,0)+IF(LOWER(J8)="я",1,0)+IF(LOWER(K8)="я",1,0)+IF(LOWER(L8)="я",1,0)+IF(LOWER(M8)="я",1,0)+IF(LOWER(N8)="я",1,0)+IF(LOWER(O8)="я",1,0)+IF(LOWER(P8)="я",1,0)+IF(LOWER(Q8)="я",1,0)+IF(LOWER(R8)="я",1,0)+IF(LOWER(S8)="я",1,0)+IF(LOWER(T8)="я",1,0)+IF(LOWER(U8)="я",1,0)+IF(LOWER(V8)="я",1,0)+IF(LOWER(W8)="я",1,0)+IF(LOWER(X8)="я",1,0)+IF(LOWER(Y8)="я",1,0)+IF(LOWER(Z8)="я",1,0)+IF(LOWER(AA8)="я",1,0)+IF(LOWER(AB8)="я",1,0)+IF(LOWER(AC8)="я",1,0)+IF(LOWER(AD8)="я",1,0)+IF(LOWER(AE8)="я",1,0)+IF(LOWER(AF8)="я",1,0)+IF(LOWER(AG8)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI8" s="0">
-        <x:f>AH8*$A$400</x:f>
+        <x:f>IF(B8="", "",AH8*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:35">
       <x:c r="AH9" s="0">
-        <x:f>IF(LOWER(C9)="я",1,0)+IF(LOWER(D9)="я",1,0)+IF(LOWER(E9)="я",1,0)+IF(LOWER(F9)="я",1,0)+IF(LOWER(G9)="я",1,0)+IF(LOWER(H9)="я",1,0)+IF(LOWER(I9)="я",1,0)+IF(LOWER(J9)="я",1,0)+IF(LOWER(K9)="я",1,0)+IF(LOWER(L9)="я",1,0)+IF(LOWER(M9)="я",1,0)+IF(LOWER(N9)="я",1,0)+IF(LOWER(O9)="я",1,0)+IF(LOWER(P9)="я",1,0)+IF(LOWER(Q9)="я",1,0)+IF(LOWER(R9)="я",1,0)+IF(LOWER(S9)="я",1,0)+IF(LOWER(T9)="я",1,0)+IF(LOWER(U9)="я",1,0)+IF(LOWER(V9)="я",1,0)+IF(LOWER(W9)="я",1,0)+IF(LOWER(X9)="я",1,0)+IF(LOWER(Y9)="я",1,0)+IF(LOWER(Z9)="я",1,0)+IF(LOWER(AA9)="я",1,0)+IF(LOWER(AB9)="я",1,0)+IF(LOWER(AC9)="я",1,0)+IF(LOWER(AD9)="я",1,0)+IF(LOWER(AE9)="я",1,0)+IF(LOWER(AF9)="я",1,0)+IF(LOWER(AG9)="я",1,0)</x:f>
+        <x:f>IF(B9="", "",IF(LOWER(C9)="я",1,0)+IF(LOWER(D9)="я",1,0)+IF(LOWER(E9)="я",1,0)+IF(LOWER(F9)="я",1,0)+IF(LOWER(G9)="я",1,0)+IF(LOWER(H9)="я",1,0)+IF(LOWER(I9)="я",1,0)+IF(LOWER(J9)="я",1,0)+IF(LOWER(K9)="я",1,0)+IF(LOWER(L9)="я",1,0)+IF(LOWER(M9)="я",1,0)+IF(LOWER(N9)="я",1,0)+IF(LOWER(O9)="я",1,0)+IF(LOWER(P9)="я",1,0)+IF(LOWER(Q9)="я",1,0)+IF(LOWER(R9)="я",1,0)+IF(LOWER(S9)="я",1,0)+IF(LOWER(T9)="я",1,0)+IF(LOWER(U9)="я",1,0)+IF(LOWER(V9)="я",1,0)+IF(LOWER(W9)="я",1,0)+IF(LOWER(X9)="я",1,0)+IF(LOWER(Y9)="я",1,0)+IF(LOWER(Z9)="я",1,0)+IF(LOWER(AA9)="я",1,0)+IF(LOWER(AB9)="я",1,0)+IF(LOWER(AC9)="я",1,0)+IF(LOWER(AD9)="я",1,0)+IF(LOWER(AE9)="я",1,0)+IF(LOWER(AF9)="я",1,0)+IF(LOWER(AG9)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI9" s="0">
-        <x:f>AH9*$A$400</x:f>
+        <x:f>IF(B9="", "",AH9*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:35">
       <x:c r="AH10" s="0">
-        <x:f>IF(LOWER(C10)="я",1,0)+IF(LOWER(D10)="я",1,0)+IF(LOWER(E10)="я",1,0)+IF(LOWER(F10)="я",1,0)+IF(LOWER(G10)="я",1,0)+IF(LOWER(H10)="я",1,0)+IF(LOWER(I10)="я",1,0)+IF(LOWER(J10)="я",1,0)+IF(LOWER(K10)="я",1,0)+IF(LOWER(L10)="я",1,0)+IF(LOWER(M10)="я",1,0)+IF(LOWER(N10)="я",1,0)+IF(LOWER(O10)="я",1,0)+IF(LOWER(P10)="я",1,0)+IF(LOWER(Q10)="я",1,0)+IF(LOWER(R10)="я",1,0)+IF(LOWER(S10)="я",1,0)+IF(LOWER(T10)="я",1,0)+IF(LOWER(U10)="я",1,0)+IF(LOWER(V10)="я",1,0)+IF(LOWER(W10)="я",1,0)+IF(LOWER(X10)="я",1,0)+IF(LOWER(Y10)="я",1,0)+IF(LOWER(Z10)="я",1,0)+IF(LOWER(AA10)="я",1,0)+IF(LOWER(AB10)="я",1,0)+IF(LOWER(AC10)="я",1,0)+IF(LOWER(AD10)="я",1,0)+IF(LOWER(AE10)="я",1,0)+IF(LOWER(AF10)="я",1,0)+IF(LOWER(AG10)="я",1,0)</x:f>
+        <x:f>IF(B10="", "",IF(LOWER(C10)="я",1,0)+IF(LOWER(D10)="я",1,0)+IF(LOWER(E10)="я",1,0)+IF(LOWER(F10)="я",1,0)+IF(LOWER(G10)="я",1,0)+IF(LOWER(H10)="я",1,0)+IF(LOWER(I10)="я",1,0)+IF(LOWER(J10)="я",1,0)+IF(LOWER(K10)="я",1,0)+IF(LOWER(L10)="я",1,0)+IF(LOWER(M10)="я",1,0)+IF(LOWER(N10)="я",1,0)+IF(LOWER(O10)="я",1,0)+IF(LOWER(P10)="я",1,0)+IF(LOWER(Q10)="я",1,0)+IF(LOWER(R10)="я",1,0)+IF(LOWER(S10)="я",1,0)+IF(LOWER(T10)="я",1,0)+IF(LOWER(U10)="я",1,0)+IF(LOWER(V10)="я",1,0)+IF(LOWER(W10)="я",1,0)+IF(LOWER(X10)="я",1,0)+IF(LOWER(Y10)="я",1,0)+IF(LOWER(Z10)="я",1,0)+IF(LOWER(AA10)="я",1,0)+IF(LOWER(AB10)="я",1,0)+IF(LOWER(AC10)="я",1,0)+IF(LOWER(AD10)="я",1,0)+IF(LOWER(AE10)="я",1,0)+IF(LOWER(AF10)="я",1,0)+IF(LOWER(AG10)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI10" s="0">
-        <x:f>AH10*$A$400</x:f>
+        <x:f>IF(B10="", "",AH10*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:35">
       <x:c r="AH11" s="0">
-        <x:f>IF(LOWER(C11)="я",1,0)+IF(LOWER(D11)="я",1,0)+IF(LOWER(E11)="я",1,0)+IF(LOWER(F11)="я",1,0)+IF(LOWER(G11)="я",1,0)+IF(LOWER(H11)="я",1,0)+IF(LOWER(I11)="я",1,0)+IF(LOWER(J11)="я",1,0)+IF(LOWER(K11)="я",1,0)+IF(LOWER(L11)="я",1,0)+IF(LOWER(M11)="я",1,0)+IF(LOWER(N11)="я",1,0)+IF(LOWER(O11)="я",1,0)+IF(LOWER(P11)="я",1,0)+IF(LOWER(Q11)="я",1,0)+IF(LOWER(R11)="я",1,0)+IF(LOWER(S11)="я",1,0)+IF(LOWER(T11)="я",1,0)+IF(LOWER(U11)="я",1,0)+IF(LOWER(V11)="я",1,0)+IF(LOWER(W11)="я",1,0)+IF(LOWER(X11)="я",1,0)+IF(LOWER(Y11)="я",1,0)+IF(LOWER(Z11)="я",1,0)+IF(LOWER(AA11)="я",1,0)+IF(LOWER(AB11)="я",1,0)+IF(LOWER(AC11)="я",1,0)+IF(LOWER(AD11)="я",1,0)+IF(LOWER(AE11)="я",1,0)+IF(LOWER(AF11)="я",1,0)+IF(LOWER(AG11)="я",1,0)</x:f>
+        <x:f>IF(B11="", "",IF(LOWER(C11)="я",1,0)+IF(LOWER(D11)="я",1,0)+IF(LOWER(E11)="я",1,0)+IF(LOWER(F11)="я",1,0)+IF(LOWER(G11)="я",1,0)+IF(LOWER(H11)="я",1,0)+IF(LOWER(I11)="я",1,0)+IF(LOWER(J11)="я",1,0)+IF(LOWER(K11)="я",1,0)+IF(LOWER(L11)="я",1,0)+IF(LOWER(M11)="я",1,0)+IF(LOWER(N11)="я",1,0)+IF(LOWER(O11)="я",1,0)+IF(LOWER(P11)="я",1,0)+IF(LOWER(Q11)="я",1,0)+IF(LOWER(R11)="я",1,0)+IF(LOWER(S11)="я",1,0)+IF(LOWER(T11)="я",1,0)+IF(LOWER(U11)="я",1,0)+IF(LOWER(V11)="я",1,0)+IF(LOWER(W11)="я",1,0)+IF(LOWER(X11)="я",1,0)+IF(LOWER(Y11)="я",1,0)+IF(LOWER(Z11)="я",1,0)+IF(LOWER(AA11)="я",1,0)+IF(LOWER(AB11)="я",1,0)+IF(LOWER(AC11)="я",1,0)+IF(LOWER(AD11)="я",1,0)+IF(LOWER(AE11)="я",1,0)+IF(LOWER(AF11)="я",1,0)+IF(LOWER(AG11)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI11" s="0">
-        <x:f>AH11*$A$400</x:f>
+        <x:f>IF(B11="", "",AH11*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:35">
       <x:c r="AH12" s="0">
-        <x:f>IF(LOWER(C12)="я",1,0)+IF(LOWER(D12)="я",1,0)+IF(LOWER(E12)="я",1,0)+IF(LOWER(F12)="я",1,0)+IF(LOWER(G12)="я",1,0)+IF(LOWER(H12)="я",1,0)+IF(LOWER(I12)="я",1,0)+IF(LOWER(J12)="я",1,0)+IF(LOWER(K12)="я",1,0)+IF(LOWER(L12)="я",1,0)+IF(LOWER(M12)="я",1,0)+IF(LOWER(N12)="я",1,0)+IF(LOWER(O12)="я",1,0)+IF(LOWER(P12)="я",1,0)+IF(LOWER(Q12)="я",1,0)+IF(LOWER(R12)="я",1,0)+IF(LOWER(S12)="я",1,0)+IF(LOWER(T12)="я",1,0)+IF(LOWER(U12)="я",1,0)+IF(LOWER(V12)="я",1,0)+IF(LOWER(W12)="я",1,0)+IF(LOWER(X12)="я",1,0)+IF(LOWER(Y12)="я",1,0)+IF(LOWER(Z12)="я",1,0)+IF(LOWER(AA12)="я",1,0)+IF(LOWER(AB12)="я",1,0)+IF(LOWER(AC12)="я",1,0)+IF(LOWER(AD12)="я",1,0)+IF(LOWER(AE12)="я",1,0)+IF(LOWER(AF12)="я",1,0)+IF(LOWER(AG12)="я",1,0)</x:f>
+        <x:f>IF(B12="", "",IF(LOWER(C12)="я",1,0)+IF(LOWER(D12)="я",1,0)+IF(LOWER(E12)="я",1,0)+IF(LOWER(F12)="я",1,0)+IF(LOWER(G12)="я",1,0)+IF(LOWER(H12)="я",1,0)+IF(LOWER(I12)="я",1,0)+IF(LOWER(J12)="я",1,0)+IF(LOWER(K12)="я",1,0)+IF(LOWER(L12)="я",1,0)+IF(LOWER(M12)="я",1,0)+IF(LOWER(N12)="я",1,0)+IF(LOWER(O12)="я",1,0)+IF(LOWER(P12)="я",1,0)+IF(LOWER(Q12)="я",1,0)+IF(LOWER(R12)="я",1,0)+IF(LOWER(S12)="я",1,0)+IF(LOWER(T12)="я",1,0)+IF(LOWER(U12)="я",1,0)+IF(LOWER(V12)="я",1,0)+IF(LOWER(W12)="я",1,0)+IF(LOWER(X12)="я",1,0)+IF(LOWER(Y12)="я",1,0)+IF(LOWER(Z12)="я",1,0)+IF(LOWER(AA12)="я",1,0)+IF(LOWER(AB12)="я",1,0)+IF(LOWER(AC12)="я",1,0)+IF(LOWER(AD12)="я",1,0)+IF(LOWER(AE12)="я",1,0)+IF(LOWER(AF12)="я",1,0)+IF(LOWER(AG12)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI12" s="0">
-        <x:f>AH12*$A$400</x:f>
+        <x:f>IF(B12="", "",AH12*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:35">
       <x:c r="AH13" s="0">
-        <x:f>IF(LOWER(C13)="я",1,0)+IF(LOWER(D13)="я",1,0)+IF(LOWER(E13)="я",1,0)+IF(LOWER(F13)="я",1,0)+IF(LOWER(G13)="я",1,0)+IF(LOWER(H13)="я",1,0)+IF(LOWER(I13)="я",1,0)+IF(LOWER(J13)="я",1,0)+IF(LOWER(K13)="я",1,0)+IF(LOWER(L13)="я",1,0)+IF(LOWER(M13)="я",1,0)+IF(LOWER(N13)="я",1,0)+IF(LOWER(O13)="я",1,0)+IF(LOWER(P13)="я",1,0)+IF(LOWER(Q13)="я",1,0)+IF(LOWER(R13)="я",1,0)+IF(LOWER(S13)="я",1,0)+IF(LOWER(T13)="я",1,0)+IF(LOWER(U13)="я",1,0)+IF(LOWER(V13)="я",1,0)+IF(LOWER(W13)="я",1,0)+IF(LOWER(X13)="я",1,0)+IF(LOWER(Y13)="я",1,0)+IF(LOWER(Z13)="я",1,0)+IF(LOWER(AA13)="я",1,0)+IF(LOWER(AB13)="я",1,0)+IF(LOWER(AC13)="я",1,0)+IF(LOWER(AD13)="я",1,0)+IF(LOWER(AE13)="я",1,0)+IF(LOWER(AF13)="я",1,0)+IF(LOWER(AG13)="я",1,0)</x:f>
+        <x:f>IF(B13="", "",IF(LOWER(C13)="я",1,0)+IF(LOWER(D13)="я",1,0)+IF(LOWER(E13)="я",1,0)+IF(LOWER(F13)="я",1,0)+IF(LOWER(G13)="я",1,0)+IF(LOWER(H13)="я",1,0)+IF(LOWER(I13)="я",1,0)+IF(LOWER(J13)="я",1,0)+IF(LOWER(K13)="я",1,0)+IF(LOWER(L13)="я",1,0)+IF(LOWER(M13)="я",1,0)+IF(LOWER(N13)="я",1,0)+IF(LOWER(O13)="я",1,0)+IF(LOWER(P13)="я",1,0)+IF(LOWER(Q13)="я",1,0)+IF(LOWER(R13)="я",1,0)+IF(LOWER(S13)="я",1,0)+IF(LOWER(T13)="я",1,0)+IF(LOWER(U13)="я",1,0)+IF(LOWER(V13)="я",1,0)+IF(LOWER(W13)="я",1,0)+IF(LOWER(X13)="я",1,0)+IF(LOWER(Y13)="я",1,0)+IF(LOWER(Z13)="я",1,0)+IF(LOWER(AA13)="я",1,0)+IF(LOWER(AB13)="я",1,0)+IF(LOWER(AC13)="я",1,0)+IF(LOWER(AD13)="я",1,0)+IF(LOWER(AE13)="я",1,0)+IF(LOWER(AF13)="я",1,0)+IF(LOWER(AG13)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI13" s="0">
-        <x:f>AH13*$A$400</x:f>
+        <x:f>IF(B13="", "",AH13*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:35">
       <x:c r="AH14" s="0">
-        <x:f>IF(LOWER(C14)="я",1,0)+IF(LOWER(D14)="я",1,0)+IF(LOWER(E14)="я",1,0)+IF(LOWER(F14)="я",1,0)+IF(LOWER(G14)="я",1,0)+IF(LOWER(H14)="я",1,0)+IF(LOWER(I14)="я",1,0)+IF(LOWER(J14)="я",1,0)+IF(LOWER(K14)="я",1,0)+IF(LOWER(L14)="я",1,0)+IF(LOWER(M14)="я",1,0)+IF(LOWER(N14)="я",1,0)+IF(LOWER(O14)="я",1,0)+IF(LOWER(P14)="я",1,0)+IF(LOWER(Q14)="я",1,0)+IF(LOWER(R14)="я",1,0)+IF(LOWER(S14)="я",1,0)+IF(LOWER(T14)="я",1,0)+IF(LOWER(U14)="я",1,0)+IF(LOWER(V14)="я",1,0)+IF(LOWER(W14)="я",1,0)+IF(LOWER(X14)="я",1,0)+IF(LOWER(Y14)="я",1,0)+IF(LOWER(Z14)="я",1,0)+IF(LOWER(AA14)="я",1,0)+IF(LOWER(AB14)="я",1,0)+IF(LOWER(AC14)="я",1,0)+IF(LOWER(AD14)="я",1,0)+IF(LOWER(AE14)="я",1,0)+IF(LOWER(AF14)="я",1,0)+IF(LOWER(AG14)="я",1,0)</x:f>
+        <x:f>IF(B14="", "",IF(LOWER(C14)="я",1,0)+IF(LOWER(D14)="я",1,0)+IF(LOWER(E14)="я",1,0)+IF(LOWER(F14)="я",1,0)+IF(LOWER(G14)="я",1,0)+IF(LOWER(H14)="я",1,0)+IF(LOWER(I14)="я",1,0)+IF(LOWER(J14)="я",1,0)+IF(LOWER(K14)="я",1,0)+IF(LOWER(L14)="я",1,0)+IF(LOWER(M14)="я",1,0)+IF(LOWER(N14)="я",1,0)+IF(LOWER(O14)="я",1,0)+IF(LOWER(P14)="я",1,0)+IF(LOWER(Q14)="я",1,0)+IF(LOWER(R14)="я",1,0)+IF(LOWER(S14)="я",1,0)+IF(LOWER(T14)="я",1,0)+IF(LOWER(U14)="я",1,0)+IF(LOWER(V14)="я",1,0)+IF(LOWER(W14)="я",1,0)+IF(LOWER(X14)="я",1,0)+IF(LOWER(Y14)="я",1,0)+IF(LOWER(Z14)="я",1,0)+IF(LOWER(AA14)="я",1,0)+IF(LOWER(AB14)="я",1,0)+IF(LOWER(AC14)="я",1,0)+IF(LOWER(AD14)="я",1,0)+IF(LOWER(AE14)="я",1,0)+IF(LOWER(AF14)="я",1,0)+IF(LOWER(AG14)="я",1,0))</x:f>
       </x:c>
       <x:c r="AI14" s="0">
-        <x:f>AH14*$A$400</x:f>
+        <x:f>IF(B14="", "",AH14*$A$400)</x:f>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:35">
       <x:c r="B15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="400" spans="1:35">

--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Организация: ООО "Организация"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Табель учёта использования рабочего времени № 1</x:t>
+    <x:t>Организация: ООО Организация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Табель учёта использования рабочего времени № 11</x:t>
   </x:si>
   <x:si>
     <x:t>Подразделение: Бухгалтерия</x:t>
   </x:si>
   <x:si>
-    <x:t>Дата: 04.04.2024</x:t>
+    <x:t>Дата: 16.04.2024</x:t>
   </x:si>
   <x:si>
     <x:t>№п/п</x:t>
